--- a/searches/sec6_results/outline_6.xlsx
+++ b/searches/sec6_results/outline_6.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,74 +434,64 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>SECTION</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>SUBSECTION</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>POINT</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>QUERY</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>DOI</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>PAPER_TITLE</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>RELEVANCE_SCORE</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>FULL_TEXT</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>BIBTEX</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>PDF_LOCATION</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>JOURNAL</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>CITATION_COUNT</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>ADOI_URL</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>document_title</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>section_title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>point_text</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>query</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>doi</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>full_text</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bibtex</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>pdf_location</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>journal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>citation_count</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>relevance_score</t>
         </is>
       </c>
     </row>
@@ -511,7 +513,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({integration framework} OR {integration architecture}) AND ({irrigation automation} OR {irrigation control}) AND ({legacy compatibility} OR {backward compatibility}))</t>
+          <t>TITLE-ABS-KEY(({integration challenges} OR {integration strategies}) AND ({automated irrigation systems} OR {smart irrigation systems}) AND ({existing infrastructure} OR {legacy systems}))</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -520,16 +522,16 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -549,7 +551,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({integration challenges} OR {integration strategies} OR {retrofitting} OR {system integration}) AND ({automated irrigation systems} OR {smart irrigation systems} OR {precision irrigation}) AND ({existing infrastructure} OR {legacy systems}))</t>
+          <t>TITLE-ABS-KEY(({retrofitting} OR {upgrading}) AND ({irrigation infrastructure} OR {irrigation networks}) AND ({automation technology} OR {IoT devices}))</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -558,16 +560,16 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -587,7 +589,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({integration challenges} OR {integration strategies}) AND ({automated irrigation systems} OR {smart irrigation systems}) AND ({existing infrastructure} OR {legacy systems}))</t>
+          <t>TITLE-ABS-KEY(({system integration} OR {seamless integration}) AND ({precision irrigation} OR {site-specific irrigation}) AND ({existing equipment} OR {installed base}))</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -596,16 +598,16 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -625,7 +627,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({phased integration} OR {gradual integration}) AND ({smart irrigation} OR {intelligent irrigation}) AND ({existing infrastructure} OR {traditional systems}))</t>
+          <t>TITLE-ABS(({integration framework} OR {integration architecture}) AND ({irrigation automation} OR {irrigation control}) AND ({legacy compatibility} OR {backward compatibility}))</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -634,16 +636,16 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -663,7 +665,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({retrofitting} OR {upgrading}) AND ({irrigation infrastructure} OR {irrigation networks}) AND ({automation technology} OR {IoT devices}))</t>
+          <t>TITLE-ABS-KEY(({phased integration} OR {gradual integration}) AND ({smart irrigation} OR {intelligent irrigation}) AND ({existing infrastructure} OR {traditional systems}))</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -672,16 +674,16 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -701,7 +703,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({system integration} OR {seamless integration}) AND ({precision irrigation} OR {site-specific irrigation}) AND ({existing equipment} OR {installed base}))</t>
+          <t>TITLE-ABS-KEY(({integration challenges} OR {integration strategies} OR {retrofitting} OR {system integration}) AND ({automated irrigation systems} OR {smart irrigation systems} OR {precision irrigation}) AND ({existing infrastructure} OR {legacy systems}))</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -710,16 +712,16 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -748,16 +750,16 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -777,7 +779,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({middleware} OR {software wrappers}) AND ({legacy system integration} OR {legacy equipment integration}) AND ({irrigation automation} OR {irrigation optimization}))</t>
+          <t>TITLE-ABS-KEY(({compatibility issues} OR {interoperability challenges}) AND ({IoT devices} OR {smart sensors}) AND ({legacy irrigation systems} OR {existing irrigation infrastructure}))</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -786,16 +788,16 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -815,7 +817,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({adapters} OR {gateways}) AND ({protocol conversion} OR {data translation}) AND ({precision irrigation} OR {site-specific irrigation}))</t>
+          <t>TITLE-ABS-KEY(({retrofit solutions} OR {retrofit kits}) AND ({irrigation controllers} OR {irrigation valves}) AND ({IoT integration} OR {ML-based decision making}))</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -824,16 +826,16 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -853,7 +855,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({compatibility issues} OR {interoperability challenges} OR {retrofit solutions} OR {adapters} OR {middleware}) AND ({IoT devices} OR {smart sensors} OR {ML-based decision making}) AND ({legacy irrigation systems} OR {existing irrigation infrastructure} OR {precision irrigation}))</t>
+          <t>TITLE-ABS-KEY(({adapters} OR {gateways}) AND ({protocol conversion} OR {data translation}) AND ({precision irrigation} OR {site-specific irrigation}))</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -862,16 +864,16 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -891,7 +893,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({compatibility issues} OR {interoperability challenges}) AND ({IoT devices} OR {smart sensors}) AND ({legacy irrigation systems} OR {existing irrigation infrastructure}))</t>
+          <t>TITLE-ABS(({middleware} OR {software wrappers}) AND ({legacy system integration} OR {legacy equipment integration}) AND ({irrigation automation} OR {irrigation optimization}))</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -900,16 +902,16 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -938,16 +940,16 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -967,7 +969,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({retrofit solutions} OR {retrofit kits}) AND ({irrigation controllers} OR {irrigation valves}) AND ({IoT integration} OR {ML-based decision making}))</t>
+          <t>TITLE-ABS-KEY(({compatibility issues} OR {interoperability challenges} OR {retrofit solutions} OR {adapters} OR {middleware}) AND ({IoT devices} OR {smart sensors} OR {ML-based decision making}) AND ({legacy irrigation systems} OR {existing irrigation infrastructure} OR {precision irrigation}))</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -976,16 +978,16 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1014,16 +1016,16 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1043,7 +1045,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({financial feasibility} OR {economic viability}) AND ({phased implementation} OR {gradual transition}) AND ({traditional irrigation systems} OR {conventional irrigation methods}))</t>
+          <t>TITLE-ABS-KEY(({economic considerations} OR {cost-benefit analysis}) AND ({transition} OR {migration}) AND ({traditional irrigation} OR {manual irrigation}) AND ({automated irrigation} OR {smart irrigation}))</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1052,16 +1054,16 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1081,7 +1083,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({cost savings} OR {water savings}) AND ({long-term benefits} OR {sustainability goals}) AND ({automated irrigation management} OR {smart irrigation practices}))</t>
+          <t>TITLE-ABS-KEY(({return on investment} OR ROI) AND ({precision agriculture} OR {site-specific management}) AND ({technology adoption} OR {automation adoption}))</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1090,16 +1092,16 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1119,7 +1121,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({economic considerations} OR {cost-benefit analysis} OR {return on investment} OR {practical considerations}) AND ({transition} OR {migration}) AND ({traditional irrigation} OR {automated irrigation} OR {irrigation automation}))</t>
+          <t>TITLE-ABS-KEY(({practical considerations} OR {implementation challenges}) AND ({irrigation automation} OR {irrigation optimization}) AND ({workforce training} OR {skill development}))</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1128,16 +1130,16 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1157,7 +1159,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({economic considerations} OR {cost-benefit analysis}) AND ({transition} OR {migration}) AND ({traditional irrigation} OR {manual irrigation}) AND ({automated irrigation} OR {smart irrigation}))</t>
+          <t>TITLE-ABS(({financial feasibility} OR {economic viability}) AND ({phased implementation} OR {gradual transition}) AND ({traditional irrigation systems} OR {conventional irrigation methods}))</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1166,16 +1168,16 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1195,7 +1197,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({practical considerations} OR {implementation challenges}) AND ({irrigation automation} OR {irrigation optimization}) AND ({workforce training} OR {skill development}))</t>
+          <t>TITLE-ABS-KEY(({cost savings} OR {water savings}) AND ({long-term benefits} OR {sustainability goals}) AND ({automated irrigation management} OR {smart irrigation practices}))</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1204,16 +1206,16 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1233,7 +1235,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({return on investment} OR ROI) AND ({precision agriculture} OR {site-specific management}) AND ({technology adoption} OR {automation adoption}))</t>
+          <t>TITLE-ABS-KEY(({economic considerations} OR {cost-benefit analysis} OR {return on investment} OR {practical considerations}) AND ({transition} OR {migration}) AND ({traditional irrigation} OR {automated irrigation} OR {irrigation automation}))</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1242,16 +1244,16 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1280,16 +1282,16 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1304,12 +1306,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>â€¢ Benefits and challenges of integrating these technologies to create a holistic precision agriculture ecosystem</t>
+          <t>â€¢ Synergies between automated irrigation and technologies such as remote sensing, variable rate application, and yield mapping, focusing on how they contribute to real-time, automated irrigation management</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({technology convergence} OR {technology harmonization}) AND ({agricultural automation} OR {farm management optimization}) AND ({irrigation control} OR {irrigation scheduling}))</t>
+          <t>TITLE-ABS-KEY(({synergies} OR {complementary technologies}) AND ({automated irrigation} OR {smart irrigation}) AND ({remote sensing} OR {satellite imagery}))</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1318,16 +1320,16 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1342,12 +1344,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>â€¢ Benefits and challenges of integrating these technologies to create a holistic precision agriculture ecosystem</t>
+          <t>â€¢ Synergies between automated irrigation and technologies such as remote sensing, variable rate application, and yield mapping, focusing on how they contribute to real-time, automated irrigation management</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({data-driven agriculture} OR {knowledge-based agriculture}) AND ({integrated solutions} OR {end-to-end solutions}) AND ({water management} OR {crop management}))</t>
+          <t>TITLE-ABS-KEY(({variable rate application} OR {precision application}) AND ({irrigation management} OR {irrigation scheduling}) AND ({real-time data} OR {site-specific data}))</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1356,16 +1358,16 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1380,12 +1382,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>â€¢ Benefits and challenges of integrating these technologies to create a holistic precision agriculture ecosystem</t>
+          <t>â€¢ Synergies between automated irrigation and technologies such as remote sensing, variable rate application, and yield mapping, focusing on how they contribute to real-time, automated irrigation management</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({holistic approach} OR {system-of-systems}) AND ({precision agriculture} OR {smart farming}) AND ({data sharing} OR {knowledge exchange}))</t>
+          <t>TITLE-ABS-KEY(({yield mapping} OR {crop performance monitoring}) AND ({irrigation optimization} OR {water productivity}) AND ({data integration} OR {precision agriculture}))</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1394,16 +1396,16 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1418,12 +1420,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>â€¢ Benefits and challenges of integrating these technologies to create a holistic precision agriculture ecosystem</t>
+          <t>â€¢ Synergies between automated irrigation and technologies such as remote sensing, variable rate application, and yield mapping, focusing on how they contribute to real-time, automated irrigation management</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({integration benefits} OR {integration challenges} OR {holistic approach} OR {technology convergence}) AND ({precision agriculture ecosystem} OR {smart farming} OR {agricultural automation}) AND ({irrigation management} OR {precision irrigation}))</t>
+          <t>TITLE-ABS(({technology integration} OR {system integration}) AND ({real-time irrigation management} OR {automated irrigation control}) AND ({precision agriculture technologies} OR {smart farming tools}))</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1432,16 +1434,16 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1456,12 +1458,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>â€¢ Benefits and challenges of integrating these technologies to create a holistic precision agriculture ecosystem</t>
+          <t>â€¢ Synergies between automated irrigation and technologies such as remote sensing, variable rate application, and yield mapping, focusing on how they contribute to real-time, automated irrigation management</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({integration benefits} OR {technology synergies}) AND ({precision agriculture ecosystem} OR {smart farming ecosystem}) AND ({irrigation management} OR {irrigation optimization}))</t>
+          <t>TITLE-ABS-KEY(({sensor fusion} OR {data fusion}) AND ({irrigation automation} OR {irrigation decision support}) AND ({remote sensing} OR {soil moisture monitoring} OR {crop health assessment}))</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1470,16 +1472,16 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1494,12 +1496,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>â€¢ Benefits and challenges of integrating these technologies to create a holistic precision agriculture ecosystem</t>
+          <t>â€¢ Synergies between automated irrigation and technologies such as remote sensing, variable rate application, and yield mapping, focusing on how they contribute to real-time, automated irrigation management</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({integration challenges} OR {interoperability issues}) AND ({multi-technology integration} OR {cross-domain integration}) AND ({precision irrigation} OR {site-specific irrigation}))</t>
+          <t>TITLE-ABS-KEY(({synergies} OR {complementary technologies} OR {variable rate application} OR {yield mapping} OR {sensor fusion}) AND ({automated irrigation} OR {smart irrigation} OR {irrigation management}) AND ({real-time data} OR {precision agriculture} OR {data integration}))</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1508,16 +1510,16 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1532,12 +1534,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>â€¢ Benefits and challenges of integrating these technologies to create a holistic precision agriculture ecosystem</t>
+          <t>â€¢ Synergies between automated irrigation and technologies such as remote sensing, variable rate application, and yield mapping, focusing on how they contribute to real-time, automated irrigation management</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY({integration benefits} AND {precision agriculture ecosystem} AND {irrigation management})</t>
+          <t>TITLE-ABS-KEY({synergies} AND {automated irrigation} AND {remote sensing})</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1546,16 +1548,16 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1570,12 +1572,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>â€¢ Synergies between automated irrigation and technologies such as remote sensing, variable rate application, and yield mapping, focusing on how they contribute to real-time, automated irrigation management</t>
+          <t>â€¢ Benefits and challenges of integrating these technologies to create a holistic precision agriculture ecosystem</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({technology integration} OR {system integration}) AND ({real-time irrigation management} OR {automated irrigation control}) AND ({precision agriculture technologies} OR {smart farming tools}))</t>
+          <t>TITLE-ABS-KEY(({integration benefits} OR {technology synergies}) AND ({precision agriculture ecosystem} OR {smart farming ecosystem}) AND ({irrigation management} OR {irrigation optimization}))</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1584,16 +1586,16 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1608,12 +1610,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>â€¢ Synergies between automated irrigation and technologies such as remote sensing, variable rate application, and yield mapping, focusing on how they contribute to real-time, automated irrigation management</t>
+          <t>â€¢ Benefits and challenges of integrating these technologies to create a holistic precision agriculture ecosystem</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({sensor fusion} OR {data fusion}) AND ({irrigation automation} OR {irrigation decision support}) AND ({remote sensing} OR {soil moisture monitoring} OR {crop health assessment}))</t>
+          <t>TITLE-ABS-KEY(({integration challenges} OR {interoperability issues}) AND ({multi-technology integration} OR {cross-domain integration}) AND ({precision irrigation} OR {site-specific irrigation}))</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1622,16 +1624,16 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1646,12 +1648,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>â€¢ Synergies between automated irrigation and technologies such as remote sensing, variable rate application, and yield mapping, focusing on how they contribute to real-time, automated irrigation management</t>
+          <t>â€¢ Benefits and challenges of integrating these technologies to create a holistic precision agriculture ecosystem</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({synergies} OR {complementary technologies} OR {variable rate application} OR {yield mapping} OR {sensor fusion}) AND ({automated irrigation} OR {smart irrigation} OR {irrigation management}) AND ({real-time data} OR {precision agriculture} OR {data integration}))</t>
+          <t>TITLE-ABS-KEY(({holistic approach} OR {system-of-systems}) AND ({precision agriculture} OR {smart farming}) AND ({data sharing} OR {knowledge exchange}))</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1660,16 +1662,16 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1684,12 +1686,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>â€¢ Synergies between automated irrigation and technologies such as remote sensing, variable rate application, and yield mapping, focusing on how they contribute to real-time, automated irrigation management</t>
+          <t>â€¢ Benefits and challenges of integrating these technologies to create a holistic precision agriculture ecosystem</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({synergies} OR {complementary technologies}) AND ({automated irrigation} OR {smart irrigation}) AND ({remote sensing} OR {satellite imagery}))</t>
+          <t>TITLE-ABS(({technology convergence} OR {technology harmonization}) AND ({agricultural automation} OR {farm management optimization}) AND ({irrigation control} OR {irrigation scheduling}))</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1698,16 +1700,16 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1722,12 +1724,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>â€¢ Synergies between automated irrigation and technologies such as remote sensing, variable rate application, and yield mapping, focusing on how they contribute to real-time, automated irrigation management</t>
+          <t>â€¢ Benefits and challenges of integrating these technologies to create a holistic precision agriculture ecosystem</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({variable rate application} OR {precision application}) AND ({irrigation management} OR {irrigation scheduling}) AND ({real-time data} OR {site-specific data}))</t>
+          <t>TITLE-ABS-KEY(({data-driven agriculture} OR {knowledge-based agriculture}) AND ({integrated solutions} OR {end-to-end solutions}) AND ({water management} OR {crop management}))</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1736,16 +1738,16 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1760,12 +1762,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>â€¢ Synergies between automated irrigation and technologies such as remote sensing, variable rate application, and yield mapping, focusing on how they contribute to real-time, automated irrigation management</t>
+          <t>â€¢ Benefits and challenges of integrating these technologies to create a holistic precision agriculture ecosystem</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({yield mapping} OR {crop performance monitoring}) AND ({irrigation optimization} OR {water productivity}) AND ({data integration} OR {precision agriculture}))</t>
+          <t>TITLE-ABS-KEY(({integration benefits} OR {integration challenges} OR {holistic approach} OR {technology convergence}) AND ({precision agriculture ecosystem} OR {smart farming} OR {agricultural automation}) AND ({irrigation management} OR {precision irrigation}))</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1774,16 +1776,16 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1798,12 +1800,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>â€¢ Synergies between automated irrigation and technologies such as remote sensing, variable rate application, and yield mapping, focusing on how they contribute to real-time, automated irrigation management</t>
+          <t>â€¢ Benefits and challenges of integrating these technologies to create a holistic precision agriculture ecosystem</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY({synergies} AND {automated irrigation} AND {remote sensing})</t>
+          <t>TITLE-ABS-KEY({integration benefits} AND {precision agriculture ecosystem} AND {irrigation management})</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1812,16 +1814,16 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
